--- a/Results/result_comparison_summary.xlsx
+++ b/Results/result_comparison_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerryliao/Jerry/Synechron/Projects/Recon_ai_sence/research/Tesseract_vs_EasyOCR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerryliao/Jerry/Synechron/Projects/Recon_ai_sence/research/Tesseract_vs_EasyOCR/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE5744B-7996-BE45-8FDD-B7963DEB4EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A26690-2F9D-D44E-BB1A-354A28CBE138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15160" xr2:uid="{E8182C38-523F-DD45-8696-30A8DD0B12CA}"/>
   </bookViews>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A6B434-DF67-1E4F-BE37-FA9922BEF305}">
-  <dimension ref="B1:F4"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,10 +473,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>1.9E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D3" s="4">
-        <v>0.10199999999999999</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>5.5E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -501,6 +501,10 @@
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/result_comparison_summary.xlsx
+++ b/Results/result_comparison_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerryliao/Jerry/Synechron/Projects/Recon_ai_sence/research/Tesseract_vs_EasyOCR/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerryliao/Jerry/Synechron/Projects/Recon_ai_sence/research/Tesseract_vs_EasyOCR/ocr_engines/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A26690-2F9D-D44E-BB1A-354A28CBE138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0FEB62-5D2C-5C41-B3EA-4E4AA4D14D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15160" xr2:uid="{E8182C38-523F-DD45-8696-30A8DD0B12CA}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     <t>Error Rate on Numbers</t>
   </si>
   <si>
-    <t>Error Rate on Text</t>
-  </si>
-  <si>
     <t>Misinterpret Numbers</t>
   </si>
   <si>
-    <t>Misinterpret Text</t>
+    <t>Error Rate on Alphabets</t>
+  </si>
+  <si>
+    <t>Misinterpret Alphabets</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,10 +459,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>

--- a/Results/result_comparison_summary.xlsx
+++ b/Results/result_comparison_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerryliao/Jerry/Synechron/Projects/Recon_ai_sence/research/Tesseract_vs_EasyOCR/ocr_engines/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0FEB62-5D2C-5C41-B3EA-4E4AA4D14D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CD2F70-AAD2-7B4C-8F37-951872799141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15160" xr2:uid="{E8182C38-523F-DD45-8696-30A8DD0B12CA}"/>
+    <workbookView xWindow="1180" yWindow="1420" windowWidth="27240" windowHeight="15160" xr2:uid="{E8182C38-523F-DD45-8696-30A8DD0B12CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,14 +40,6 @@
 add , in the end</t>
   </si>
   <si>
-    <t>misinterpret b to o
-misinterpret h to n
-misinterpret f to t
-miss y in the end
-miss v
-miss entire word</t>
-  </si>
-  <si>
     <t>miss continuous 7
 miss continuous 2
 miss .</t>
@@ -67,6 +59,14 @@
   </si>
   <si>
     <t>Misinterpret Alphabets</t>
+  </si>
+  <si>
+    <t>misinterpret l to i
+misinterpret h to n
+misinterpret f to t
+misinterpret d to a
+miss y in the end
+miss v</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,16 +456,16 @@
     <row r="2" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="85" x14ac:dyDescent="0.2">
@@ -479,7 +479,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
@@ -493,13 +493,13 @@
         <v>1.9E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>0.10199999999999999</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">

--- a/Results/result_comparison_summary.xlsx
+++ b/Results/result_comparison_summary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerryliao/Jerry/Synechron/Projects/Recon_ai_sence/research/Tesseract_vs_EasyOCR/ocr_engines/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerryliao/Jerry/Project/ocr_engines/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CD2F70-AAD2-7B4C-8F37-951872799141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E386F4A-B626-0E4D-A79F-D757668CD82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1420" windowWidth="27240" windowHeight="15160" xr2:uid="{E8182C38-523F-DD45-8696-30A8DD0B12CA}"/>
+    <workbookView xWindow="1180" yWindow="1420" windowWidth="27240" windowHeight="15160" activeTab="1" xr2:uid="{E8182C38-523F-DD45-8696-30A8DD0B12CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
+    <sheet name="Time" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Tesseract</t>
   </si>
@@ -67,6 +68,24 @@
 misinterpret d to a
 miss y in the end
 miss v</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>0.07 seconds/image</t>
+  </si>
+  <si>
+    <t>0.25 seconds/image</t>
+  </si>
+  <si>
+    <t>0.82 seconds/image</t>
+  </si>
+  <si>
+    <t>0.3 seconds/image</t>
   </si>
 </sst>
 </file>
@@ -443,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A6B434-DF67-1E4F-BE37-FA9922BEF305}">
   <dimension ref="B1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,4 +528,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94F0081-6739-3048-B0C7-EA1B2BD298C6}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>